--- a/建表&其他功能.xlsx
+++ b/建表&其他功能.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUSTech\课程\大二下\数据库原理\Project2\JMwdFUBMQZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89E519C-860D-4D05-92E9-D3267D9D02BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2F2FF0-36A2-4CE8-9AF2-37F434BEA015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="建表" sheetId="1" r:id="rId1"/>
     <sheet name="额外API" sheetId="2" r:id="rId2"/>
+    <sheet name="权限" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +344,62 @@
   </si>
   <si>
     <t>可选，错填视作不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getProfitBetweenDates(date1: str, date2: str)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回两个日期内公司获得的利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priviliege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"s" + staff_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"c" + staff_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can only query orders belongs to him/her</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can only query orders and contract belongs to him/her</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>designed for top users in company, has all privilieges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setNowDate(date: str)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置当前日期，当前日期及过去的订单会变成Finished，未来的订单会变成Unfinished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单利润查询功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟自然时间流逝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"top" + number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,17 +466,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,7 +773,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -751,7 +820,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -765,7 +834,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -774,7 +843,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -783,7 +852,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -795,7 +864,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -804,7 +873,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -815,7 +884,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -827,7 +896,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -836,7 +905,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -845,7 +914,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
@@ -856,7 +925,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -865,7 +934,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -874,7 +943,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -886,7 +955,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -898,7 +967,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="10"/>
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -907,7 +976,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -916,7 +985,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
@@ -930,7 +999,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -942,7 +1011,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -957,7 +1026,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="10"/>
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -966,7 +1035,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="10"/>
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -975,7 +1044,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="10"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -984,7 +1053,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
@@ -1001,7 +1070,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -1016,7 +1085,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="10"/>
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -1025,7 +1094,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
@@ -1039,7 +1108,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -1051,7 +1120,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="10"/>
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -1066,7 +1135,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="10"/>
       <c r="B31" t="s">
         <v>40</v>
       </c>
@@ -1075,7 +1144,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="10"/>
       <c r="B32" t="s">
         <v>41</v>
       </c>
@@ -1084,7 +1153,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
@@ -1101,7 +1170,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="10"/>
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1185,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>44</v>
       </c>
@@ -1131,7 +1200,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="10"/>
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -1140,7 +1209,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="10"/>
       <c r="B37" t="s">
         <v>42</v>
       </c>
@@ -1149,7 +1218,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="10"/>
       <c r="B38" t="s">
         <v>43</v>
       </c>
@@ -1175,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3FB65B-0178-4E69-981A-A637AC84A06E}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1261,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1209,10 +1278,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1221,34 +1290,34 @@
       <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1259,55 +1328,55 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1318,7 +1387,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1329,7 +1398,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1345,8 +1414,55 @@
         <v>68</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C6:C7"/>
@@ -1359,4 +1475,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AA93F4-A57C-4B34-97B8-6D19A0FEE17C}">
+  <dimension ref="A1:AL9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/建表&其他功能.xlsx
+++ b/建表&其他功能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUSTech\课程\大二下\数据库原理\Project2\JMwdFUBMQZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2F2FF0-36A2-4CE8-9AF2-37F434BEA015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DF3EB6-4041-4C52-8D3E-B27B831AB8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="3492" windowWidth="11412" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="建表" sheetId="1" r:id="rId1"/>
@@ -301,12 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总部可根据数量来天凭证分配给“处理订单”事务的人力资源
-即使合同状态不是Finished，也需要有人来持续处理合同和订单，
-所以这里的限制条件中没有合同状态必须Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每年找借口送小礼品，增进关系，刺激客户多次消费（营销技巧）
 只算成交了的合同，即状态为Finished
 由于签合同后，库存里的商品就预留给了合同，因此“成交时间”算成contract_date</t>
@@ -400,6 +394,12 @@
   </si>
   <si>
     <t>"top" + number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部可根据数量来合理分配给“处理订单”事务的人力资源
+即使合同状态不是Finished，也需要有人来持续处理合同和订单，
+所以这里的限制条件中没有合同状态必须Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,22 +473,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,7 +820,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -834,7 +834,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -843,7 +843,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -852,7 +852,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -873,7 +873,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -884,7 +884,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -914,7 +914,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
@@ -925,7 +925,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -934,7 +934,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -943,7 +943,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -967,7 +967,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -985,7 +985,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
@@ -999,7 +999,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1011,7 +1011,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -1044,7 +1044,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
@@ -1070,7 +1070,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="11"/>
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -1120,7 +1120,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" t="s">
         <v>40</v>
       </c>
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" t="s">
         <v>41</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="11"/>
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>44</v>
       </c>
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="11"/>
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" t="s">
         <v>42</v>
       </c>
@@ -1218,7 +1218,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" t="s">
         <v>43</v>
       </c>
@@ -1246,7 +1246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3FB65B-0178-4E69-981A-A637AC84A06E}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1278,102 +1278,102 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1383,7 +1383,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1391,10 +1391,10 @@
         <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
@@ -1405,44 +1405,44 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>78</v>
+      <c r="A13" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>89</v>
+      <c r="D13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -1451,10 +1451,10 @@
         <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AA93F4-A57C-4B34-97B8-6D19A0FEE17C}">
   <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1493,10 +1493,10 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1516,27 +1516,27 @@
       <c r="AL1" s="7"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
